--- a/Diagrammer/Burndown for WHAT.xlsx
+++ b/Diagrammer/Burndown for WHAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\3-sem.-eksamen-SWD\Diagrammer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\GitHub Repositorys\3-sem.-eksamen-SWD\Diagrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473354A7-B678-486F-B9FA-5585E016D64A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FB4884-A9D5-4743-8604-A1CBB3431890}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1337,16 +1338,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1673,16 +1674,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748780FD-D025-4A00-ABEB-C79BF8E25DEA}">
   <dimension ref="B3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>SUM(C4:C29)/60</f>
         <v>67</v>

--- a/Diagrammer/Burndown for WHAT.xlsx
+++ b/Diagrammer/Burndown for WHAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\GitHub Repositorys\3-sem.-eksamen-SWD\Diagrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FB4884-A9D5-4743-8604-A1CBB3431890}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69FB32B-4584-438B-A8A2-99C52F875777}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Est.</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Velocity</t>
-  </si>
-  <si>
-    <t>Estimated</t>
   </si>
   <si>
     <t>Actual</t>
@@ -342,86 +339,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Ark1'!$L$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Estimated</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ark1'!$L$4:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1860</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1560</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1560</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-16A8-46B9-AC91-5C063F9B5E59}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -456,7 +378,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$M$4:$M$10</c:f>
+              <c:f>'Ark1'!$L$4:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1344,10 +1266,10 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1672,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748780FD-D025-4A00-ABEB-C79BF8E25DEA}">
-  <dimension ref="B3:N30"/>
+  <dimension ref="B3:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1605,7 @@
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1711,14 +1633,11 @@
       <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1748,11 +1667,8 @@
       <c r="L4">
         <v>1860</v>
       </c>
-      <c r="M4">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1779,15 +1695,11 @@
         <v>1550</v>
       </c>
       <c r="L5">
-        <f>SUM(L4-(60+120+120))</f>
-        <v>1560</v>
-      </c>
-      <c r="M5">
-        <f>SUM(M4-C4)</f>
+        <f>SUM(L4-C4)</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -1808,15 +1720,11 @@
         <v>1240</v>
       </c>
       <c r="L6">
-        <f>SUM(L5)</f>
+        <f>SUM(L5-(C5+C6))</f>
         <v>1560</v>
       </c>
-      <c r="M6">
-        <f>SUM(M5-(C5+C6))</f>
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1833,12 +1741,8 @@
         <f t="shared" si="0"/>
         <v>930</v>
       </c>
-      <c r="L7">
-        <f>SUM(L6-(180+120+120))</f>
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1855,12 +1759,8 @@
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
-      <c r="L8">
-        <f>SUM(L7-(240+180+60+60))</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1877,12 +1777,8 @@
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="L9">
-        <f>SUM(L8-180)</f>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1899,11 +1795,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1914,7 +1807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1925,7 +1818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1936,7 +1829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1947,7 +1840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1958,7 +1851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>

--- a/Diagrammer/Burndown for WHAT.xlsx
+++ b/Diagrammer/Burndown for WHAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\GitHub Repositorys\3-sem.-eksamen-SWD\Diagrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69FB32B-4584-438B-A8A2-99C52F875777}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA249011-5346-4292-BBAB-A8FE179474E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
+    <workbookView xWindow="4185" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Est.</t>
   </si>
@@ -48,9 +48,6 @@
     <t>US1.02</t>
   </si>
   <si>
-    <t>US1.03</t>
-  </si>
-  <si>
     <t>US1.04</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>US2.01</t>
-  </si>
-  <si>
-    <t>US2.02</t>
   </si>
   <si>
     <t>US2.03</t>
@@ -156,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -164,13 +158,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,22 +387,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1860</c:v>
+                  <c:v>1530</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1550</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1240</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>930</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>620</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>310</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -383,13 +462,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1860</c:v>
+                  <c:v>1530</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1800</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1560</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,15 +1339,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1594,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748780FD-D025-4A00-ABEB-C79BF8E25DEA}">
-  <dimension ref="B3:O30"/>
+  <dimension ref="B1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,44 +1684,54 @@
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L1">
+        <f>SUM(1530/6)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>130</v>
@@ -1657,15 +1746,15 @@
       <c r="H4">
         <v>130</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>0</v>
       </c>
-      <c r="K4">
-        <f>SUM(C4:C17)</f>
-        <v>1860</v>
-      </c>
-      <c r="L4">
-        <v>1860</v>
+      <c r="K4" s="8">
+        <f>SUM(C4:C15)</f>
+        <v>1530</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1530</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -1676,7 +1765,7 @@
         <v>120</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1685,18 +1774,18 @@
         <v>240</v>
       </c>
       <c r="H5">
-        <v>130</v>
-      </c>
-      <c r="J5">
+        <v>140</v>
+      </c>
+      <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="K5">
-        <f>SUM(K4-310)</f>
-        <v>1550</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="8">
+        <f>SUM(K4-255)</f>
+        <v>1275</v>
+      </c>
+      <c r="L5" s="9">
         <f>SUM(L4-C4)</f>
-        <v>1800</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -1707,21 +1796,21 @@
         <v>120</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <v>2</v>
       </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K10" si="0">SUM(K5-310)</f>
-        <v>1240</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="8">
+        <f t="shared" ref="K6:K10" si="0">SUM(K5-255)</f>
+        <v>1020</v>
+      </c>
+      <c r="L6" s="9">
         <f>SUM(L5-(C5+C6))</f>
-        <v>1560</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -1729,79 +1818,83 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <v>3</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <f t="shared" si="0"/>
-        <v>930</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="8">
         <f t="shared" si="0"/>
-        <v>620</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <v>5</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="8">
         <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>6</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -1812,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -1823,10 +1916,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -1837,7 +1930,7 @@
         <v>120</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -1845,10 +1938,10 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -1859,7 +1952,7 @@
         <v>180</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1870,7 +1963,7 @@
         <v>240</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1878,10 +1971,10 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1889,10 +1982,10 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1900,10 +1993,10 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F20">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1911,10 +2004,10 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1922,10 +2015,10 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1933,10 +2026,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>60</v>
-      </c>
-      <c r="F23">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1944,10 +2034,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>120</v>
-      </c>
-      <c r="F24">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1955,7 +2042,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -1963,7 +2050,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1971,33 +2058,18 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
       <c r="C28">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <f>SUM(C4:C29)/60</f>
-        <v>67</v>
+        <f>SUM(C4:C27)/60</f>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Diagrammer/Burndown for WHAT.xlsx
+++ b/Diagrammer/Burndown for WHAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\GitHub Repositorys\3-sem.-eksamen-SWD\Diagrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA249011-5346-4292-BBAB-A8FE179474E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8960CFD1-BBE2-44E1-AD90-D6902F2E9566}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
+    <workbookView xWindow="5115" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -469,6 +469,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748780FD-D025-4A00-ABEB-C79BF8E25DEA}">
-  <dimension ref="B1:O28"/>
+  <dimension ref="B3:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,12 +1690,6 @@
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L1">
-        <f>SUM(1530/6)</f>
-        <v>255</v>
-      </c>
-    </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -1820,6 +1820,9 @@
       <c r="C7">
         <v>120</v>
       </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
       <c r="F7">
         <v>4</v>
       </c>
@@ -1830,7 +1833,10 @@
         <f t="shared" si="0"/>
         <v>765</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9">
+        <f>SUM(L6-(C7+C8+C9))</f>
+        <v>810</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1839,6 +1845,9 @@
       <c r="C8">
         <v>180</v>
       </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
       <c r="F8">
         <v>5</v>
       </c>
@@ -1849,7 +1858,10 @@
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="9">
+        <f>SUM(L7-(C10+C11+C12+C13+C14))</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1858,6 +1870,9 @@
       <c r="C9">
         <v>90</v>
       </c>
+      <c r="D9">
+        <v>120</v>
+      </c>
       <c r="F9">
         <v>6</v>
       </c>
@@ -1877,6 +1892,9 @@
       <c r="C10">
         <v>210</v>
       </c>
+      <c r="D10">
+        <v>69</v>
+      </c>
       <c r="F10">
         <v>7</v>
       </c>
@@ -1896,6 +1914,9 @@
       <c r="C11">
         <v>60</v>
       </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
       <c r="F11">
         <v>8</v>
       </c>
@@ -1907,6 +1928,9 @@
       <c r="C12">
         <v>90</v>
       </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
       <c r="F12">
         <v>9</v>
       </c>
@@ -1918,6 +1942,9 @@
       <c r="C13">
         <v>150</v>
       </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
       <c r="F13">
         <v>11</v>
       </c>
@@ -1928,6 +1955,9 @@
       </c>
       <c r="C14">
         <v>120</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
       </c>
       <c r="F14">
         <v>12</v>

--- a/Diagrammer/Burndown for WHAT.xlsx
+++ b/Diagrammer/Burndown for WHAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\GitHub Repositorys\3-sem.-eksamen-SWD\Diagrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8960CFD1-BBE2-44E1-AD90-D6902F2E9566}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D89B88-709C-4FE0-A053-865E4088F5B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
+    <workbookView xWindow="6045" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
                   <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,7 +1682,7 @@
   <dimension ref="B3:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,8 +1859,8 @@
         <v>510</v>
       </c>
       <c r="L8" s="9">
-        <f>SUM(L7-(C10+C11+C12+C13+C14))</f>
-        <v>180</v>
+        <f>SUM(L7-(C10+C11+C12+C13+C14+C15))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">

--- a/Diagrammer/Burndown for WHAT.xlsx
+++ b/Diagrammer/Burndown for WHAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\GitHub Repositorys\3-sem.-eksamen-SWD\Diagrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D89B88-709C-4FE0-A053-865E4088F5B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CABE830-D5CF-45AF-A4F6-C338AA2A0D00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
+    <workbookView xWindow="6975" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Est.</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>I alt</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>Resterende min</t>
   </si>
 </sst>
 </file>
@@ -150,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -235,11 +244,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -250,6 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,6 +401,36 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$J$4:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Ark1'!$K$4:$K$10</c:f>
@@ -455,6 +506,36 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$J$4:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Ark1'!$L$4:$L$10</c:f>
@@ -561,6 +642,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1345,16 +1427,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1679,14 +1761,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748780FD-D025-4A00-ABEB-C79BF8E25DEA}">
-  <dimension ref="B3:O28"/>
+  <dimension ref="B3:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1741,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H4">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -1774,7 +1858,7 @@
         <v>240</v>
       </c>
       <c r="H5">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
@@ -1801,6 +1885,12 @@
       <c r="F6">
         <v>3</v>
       </c>
+      <c r="G6">
+        <v>510</v>
+      </c>
+      <c r="H6">
+        <v>510</v>
+      </c>
       <c r="J6" s="7">
         <v>2</v>
       </c>
@@ -2091,10 +2181,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C28">
+    <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="10">
         <f>SUM(C4:C27)/60</f>
         <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>SUM(62*60)-(C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14)</f>
+        <v>2370</v>
+      </c>
+      <c r="C31">
+        <f>SUM(B31/60)</f>
+        <v>39.5</v>
       </c>
     </row>
   </sheetData>
